--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12031.81865012025</v>
+        <v>4219.511140198534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33970018.24655607</v>
+        <v>33969154.61612364</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10667670.21784128</v>
+        <v>10662833.79977382</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3580973.871158454</v>
+        <v>3583358.158483366</v>
       </c>
     </row>
     <row r="11">
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
     </row>
     <row r="9">
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
     </row>
     <row r="10">
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>395.9281218563019</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1387,7 +1387,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>189.0019335287526</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>54.79104284032319</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.2558279457862</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1612,16 +1612,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>61.83288612661052</v>
       </c>
       <c r="E14" t="n">
-        <v>204.7168792811804</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>74.4281100935485</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>43.97954181326757</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>224.285978493914</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>59.0501848103609</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
@@ -1909,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2010,16 +2010,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>85.1488807209182</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>106.4438755113824</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2086,7 +2086,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>158.6851702988639</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>348.4214736634539</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2241,10 +2241,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>77.20378078338659</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>214.5646102646769</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>349.8809047577579</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>32.52127443761996</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
@@ -2380,13 +2380,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.9217980954888</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2532,10 +2532,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>214.5646102646769</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>298.1262462299691</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>195.7731869217376</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>154.4368869916649</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>120.6971064205482</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
@@ -2775,10 +2775,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>398.2767944639029</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>401.5266111030793</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>33.91608582564027</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2967,10 +2967,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>32.01788871693632</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>176.1446634785937</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>268.3829272931346</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3189,25 +3189,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>11.96377639543406</v>
       </c>
       <c r="F34" t="n">
-        <v>67.81305593795599</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>20.4247425449669</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>231.5356297698772</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3438,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>124.9554984777215</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3486,13 +3486,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>185.4235363817277</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>262.3760882311993</v>
       </c>
       <c r="F38" t="n">
-        <v>368.5724630577451</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -3562,10 +3562,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>79.99783428205468</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>57.0922853105867</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3805,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>401.5266111030789</v>
+        <v>401.5266111030793</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3906,13 +3906,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>17.75123914303109</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>79.99783428205424</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.178469421081445</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
@@ -4042,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>361.4649050157285</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4152,10 +4152,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>170.3034090720313</v>
       </c>
       <c r="X46" t="n">
-        <v>232.6533883048353</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2.508138455589629</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>6.040770853278584</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>9.716685196678938</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.072177809113711</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.607798771138296</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2.523260307689948</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.754211318554211</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>5.190673088024536</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>6.665153726207343</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>8.014015446969966</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.096595895631884</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.490927346818495</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.043130126599839</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>7.273053559637512</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>8.01809522879007</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>8.745421472300192</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>9.417224979345601</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>12.64714841238327</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1065.487716428707</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="C11" t="n">
-        <v>1065.487716428707</v>
+        <v>1710.413853100272</v>
       </c>
       <c r="D11" t="n">
-        <v>1065.487716428707</v>
+        <v>1274.504068274716</v>
       </c>
       <c r="E11" t="n">
-        <v>1065.487716428707</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F11" t="n">
-        <v>637.6202868379146</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>238.1175955173917</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001353</v>
@@ -5047,7 +5047,7 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T11" t="n">
-        <v>2148.556325916849</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U11" t="n">
-        <v>1889.485634438363</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V11" t="n">
-        <v>1889.485634438363</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="W11" t="n">
-        <v>1484.630179849396</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="X11" t="n">
-        <v>1065.487716428707</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="Y11" t="n">
-        <v>1065.487716428707</v>
+        <v>2148.556325916848</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5114,7 +5114,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043084</v>
@@ -5123,19 +5123,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.291841223631</v>
+        <v>694.697370523135</v>
       </c>
       <c r="C13" t="n">
-        <v>919.7301297068562</v>
+        <v>522.1356590063599</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,13 +5205,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O13" t="n">
         <v>1657.620488527956</v>
@@ -5223,7 +5223,7 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
         <v>2215.901038951971</v>
@@ -5232,19 +5232,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1973.653814855378</v>
+        <v>1918.309327137879</v>
       </c>
       <c r="V13" t="n">
-        <v>1686.698306725808</v>
+        <v>1631.35381900831</v>
       </c>
       <c r="W13" t="n">
-        <v>1414.6719023121</v>
+        <v>1359.327414594601</v>
       </c>
       <c r="X13" t="n">
-        <v>1414.6719023121</v>
+        <v>1113.935659928014</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.110459942618</v>
+        <v>886.515989242122</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1128.043535737734</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="C14" t="n">
-        <v>689.9010629211571</v>
+        <v>942.9414484451324</v>
       </c>
       <c r="D14" t="n">
-        <v>253.9912780956016</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E14" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.47212285877</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="X14" t="n">
-        <v>1536.32965943808</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="Y14" t="n">
-        <v>1128.043535737734</v>
+        <v>1381.083921261709</v>
       </c>
     </row>
     <row r="15">
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235861</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210685</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
         <v>551.5786779960906</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.6552262893761</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C16" t="n">
-        <v>299.0935147726011</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D16" t="n">
-        <v>223.9136055871985</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E16" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895473</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092379</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>2315.903797838376</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774551</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X16" t="n">
-        <v>890.893515694255</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083632</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2300.68092612414</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2041.610234645654</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1678.99328457948</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W17" t="n">
-        <v>1274.137829990514</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X17" t="n">
-        <v>854.9953665698242</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y17" t="n">
-        <v>446.7092428694776</v>
+        <v>673.2607362976736</v>
       </c>
     </row>
     <row r="18">
@@ -5576,13 +5576,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
         <v>79.1492015823585</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.655226289377</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C19" t="n">
-        <v>299.093514772602</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D19" t="n">
-        <v>133.2155219741246</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E19" t="n">
-        <v>47.20655154895474</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
         <v>47.20655154895474</v>
@@ -5673,22 +5673,22 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092383</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>1901.869573656742</v>
       </c>
       <c r="P19" t="n">
         <v>2274.089213540314</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>2252.808511274623</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1965.853003145054</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.2588091910869</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C20" t="n">
-        <v>483.1163363745102</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D20" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E20" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5782,22 +5782,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>1849.01926465316</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V20" t="n">
-        <v>1486.402314586987</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W20" t="n">
-        <v>1081.54685999802</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="X20" t="n">
-        <v>921.2588091910869</v>
+        <v>1236.792598174392</v>
       </c>
       <c r="Y20" t="n">
-        <v>921.2588091910869</v>
+        <v>884.8517156860543</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,19 +5837,19 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
         <v>1614.947661807679</v>
@@ -5870,13 +5870,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>471.655226289377</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C22" t="n">
-        <v>471.655226289377</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D22" t="n">
-        <v>471.655226289377</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E22" t="n">
-        <v>301.8972225401143</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F22" t="n">
-        <v>125.1901685018705</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092378</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X22" t="n">
-        <v>890.8935156942559</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y22" t="n">
-        <v>663.4738450083642</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.20655154895473</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="C23" t="n">
-        <v>47.20655154895473</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="D23" t="n">
-        <v>47.20655154895473</v>
+        <v>1262.263781292319</v>
       </c>
       <c r="E23" t="n">
-        <v>47.20655154895473</v>
+        <v>828.4890364506136</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895473</v>
+        <v>400.6216068598214</v>
       </c>
       <c r="G23" t="n">
         <v>47.20655154895473</v>
@@ -5986,22 +5986,22 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L23" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M23" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
         <v>1775.969506973259</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2327.477805288524</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2068.407113810038</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V23" t="n">
-        <v>1705.790163743865</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W23" t="n">
-        <v>1300.934709154898</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="X23" t="n">
-        <v>881.7922457342091</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="Y23" t="n">
-        <v>473.5061220338625</v>
+        <v>1698.173566117874</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030332</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6110,10 +6110,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6150,16 +6150,16 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>477.6707703898316</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>839.4924998801304</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>970.0968922186598</v>
+        <v>550.4276429928788</v>
       </c>
       <c r="N25" t="n">
-        <v>1539.854607180194</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O25" t="n">
         <v>1657.620488527956</v>
@@ -6180,19 +6180,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1695.267182904121</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="V25" t="n">
-        <v>1408.311674774551</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="W25" t="n">
-        <v>1408.311674774551</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X25" t="n">
-        <v>1162.919920107963</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.919920107963</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1106.599419841793</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="C26" t="n">
-        <v>1106.599419841793</v>
+        <v>1451.343161621786</v>
       </c>
       <c r="D26" t="n">
-        <v>1106.599419841793</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E26" t="n">
-        <v>672.8246750000881</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F26" t="n">
-        <v>244.9572454092958</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
         <v>276.0532770435806</v>
@@ -6256,22 +6256,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W26" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.185114027047</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="Y26" t="n">
-        <v>1532.898990326701</v>
+        <v>1889.485634438363</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>888.10816919885</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C28" t="n">
-        <v>715.5464576820749</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6684648835976</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E28" t="n">
-        <v>379.9104611343349</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F28" t="n">
-        <v>203.2034070960911</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
         <v>47.20655154895473</v>
@@ -6384,22 +6384,22 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L28" t="n">
-        <v>1106.33113894078</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M28" t="n">
-        <v>1412.355695376305</v>
+        <v>732.1459643466588</v>
       </c>
       <c r="N28" t="n">
-        <v>1539.854607180195</v>
+        <v>1301.903679308193</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527956</v>
+        <v>1839.338809881736</v>
       </c>
       <c r="P28" t="n">
         <v>2105.896438675981</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351143</v>
+        <v>2093.984769840306</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>1815.598137889049</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270316</v>
+        <v>1528.642629759479</v>
       </c>
       <c r="W28" t="n">
-        <v>1552.738213270316</v>
+        <v>1256.616225345771</v>
       </c>
       <c r="X28" t="n">
-        <v>1307.346458603729</v>
+        <v>1256.616225345771</v>
       </c>
       <c r="Y28" t="n">
-        <v>1079.926787917837</v>
+        <v>1029.196554659879</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>449.5063439367354</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
         <v>1463.013992431967</v>
@@ -6481,7 +6481,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T29" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U29" t="n">
-        <v>2108.089956131646</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V29" t="n">
-        <v>2108.089956131646</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W29" t="n">
-        <v>1703.234501542679</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X29" t="n">
-        <v>1284.09203812199</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y29" t="n">
-        <v>875.8059144216433</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="30">
@@ -6521,22 +6521,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E30" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I30" t="n">
         <v>81.42328772043086</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>992.2890823372263</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="C31" t="n">
-        <v>819.7273708204513</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D31" t="n">
-        <v>653.849378021974</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E31" t="n">
-        <v>484.0913742727112</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F31" t="n">
-        <v>307.3843202344674</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G31" t="n">
-        <v>142.6431398469858</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092379</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>550.4276429928792</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2215.901038951971</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>2215.901038951971</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1928.945530822401</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W31" t="n">
-        <v>1656.919126408693</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X31" t="n">
-        <v>1411.527371742105</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y31" t="n">
-        <v>1184.107701056214</v>
+        <v>890.8935156942559</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2182.403674944107</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C32" t="n">
-        <v>1744.26120212753</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D32" t="n">
-        <v>1308.351417301975</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E32" t="n">
-        <v>874.5766724602698</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F32" t="n">
         <v>446.7092428694776</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
         <v>1463.013992431967</v>
@@ -6718,7 +6718,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W32" t="n">
-        <v>2360.327577447737</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="X32" t="n">
-        <v>2360.327577447737</v>
+        <v>1281.294937054732</v>
       </c>
       <c r="Y32" t="n">
-        <v>2360.327577447737</v>
+        <v>873.0088133543854</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>765.0997489345757</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R33" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S33" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T33" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U33" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V33" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.081764785142</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C34" t="n">
-        <v>616.081764785142</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D34" t="n">
-        <v>450.2037719866647</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="E34" t="n">
-        <v>280.445768237402</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F34" t="n">
-        <v>211.9477319364363</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
         <v>106.1122152511379</v>
@@ -6864,19 +6864,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>481.9462364092383</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M34" t="n">
-        <v>1066.127311827553</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N34" t="n">
-        <v>1635.885026789087</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O34" t="n">
         <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.320054190021</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>765.4265856715607</v>
+        <v>1422.719694168252</v>
       </c>
       <c r="C35" t="n">
-        <v>765.4265856715607</v>
+        <v>984.5772213516757</v>
       </c>
       <c r="D35" t="n">
-        <v>744.7955325958366</v>
+        <v>984.5772213516757</v>
       </c>
       <c r="E35" t="n">
-        <v>744.7955325958366</v>
+        <v>550.8024765099708</v>
       </c>
       <c r="F35" t="n">
-        <v>316.9281030050443</v>
+        <v>550.8024765099708</v>
       </c>
       <c r="G35" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
         <v>2043.069798152528</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V35" t="n">
-        <v>1997.710627381563</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W35" t="n">
-        <v>1592.855172792597</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X35" t="n">
-        <v>1173.712709371907</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y35" t="n">
-        <v>765.4265856715607</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>858.3289888817353</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C37" t="n">
-        <v>685.7672773649603</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D37" t="n">
-        <v>519.889284566483</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E37" t="n">
-        <v>350.1312808172202</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F37" t="n">
-        <v>173.4242267789764</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M37" t="n">
-        <v>818.7256495113488</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N37" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>2081.94094549648</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.98543736691</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W37" t="n">
-        <v>1522.959032953202</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.567278286614</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.147607600722</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1526.868684372189</v>
+        <v>1017.864239579286</v>
       </c>
       <c r="C38" t="n">
-        <v>1088.726211555613</v>
+        <v>1017.864239579286</v>
       </c>
       <c r="D38" t="n">
-        <v>1088.726211555613</v>
+        <v>581.9544547537305</v>
       </c>
       <c r="E38" t="n">
-        <v>1088.726211555613</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F38" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G38" t="n">
         <v>316.9281030050443</v>
@@ -7171,28 +7171,28 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>1526.868684372189</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W38" t="n">
-        <v>1526.868684372189</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X38" t="n">
-        <v>1526.868684372189</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="Y38" t="n">
-        <v>1526.868684372189</v>
+        <v>1444.163810064194</v>
       </c>
     </row>
     <row r="39">
@@ -7232,22 +7232,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043086</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.0817647851416</v>
+        <v>727.0944902899325</v>
       </c>
       <c r="C40" t="n">
-        <v>616.0817647851416</v>
+        <v>554.5327787731575</v>
       </c>
       <c r="D40" t="n">
-        <v>558.4127897239429</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E40" t="n">
         <v>388.6547859746801</v>
@@ -7323,34 +7323,34 @@
         <v>211.9477319364363</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092379</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7368,16 +7368,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856608</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X40" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041287</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="41">
@@ -7408,28 +7408,28 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001348</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7447,7 +7447,7 @@
         <v>1889.485634438363</v>
       </c>
       <c r="V41" t="n">
-        <v>1526.868684372189</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W41" t="n">
         <v>1122.013229783223</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965029</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.0944902899325</v>
+        <v>750.0418582406339</v>
       </c>
       <c r="C43" t="n">
-        <v>554.5327787731575</v>
+        <v>577.4801467238589</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6547859746801</v>
+        <v>411.6021539253816</v>
       </c>
       <c r="E43" t="n">
-        <v>388.6547859746801</v>
+        <v>241.8441501761188</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>65.13709613787503</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
@@ -7575,19 +7575,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M43" t="n">
-        <v>1236.93553127931</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N43" t="n">
-        <v>1806.693246240844</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O43" t="n">
-        <v>1924.459127588605</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2279.52168423354</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>2037.274460136947</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1758.88782818569</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V43" t="n">
-        <v>1471.93232005612</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W43" t="n">
-        <v>1199.905915642412</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X43" t="n">
-        <v>954.5141609758243</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y43" t="n">
-        <v>727.0944902899325</v>
+        <v>941.8604769596211</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>884.8517156860543</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C44" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D44" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
@@ -7666,7 +7666,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2060.790516184048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>1698.173566117874</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W44" t="n">
-        <v>1293.318111528907</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X44" t="n">
-        <v>1293.318111528907</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y44" t="n">
-        <v>885.0319878285608</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="45">
@@ -7706,25 +7706,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.2907825224202</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C46" t="n">
-        <v>724.2907825224202</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D46" t="n">
-        <v>558.4127897239429</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E46" t="n">
-        <v>388.6547859746801</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F46" t="n">
-        <v>211.9477319364363</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>588.0160255186814</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>718.6204178572108</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N46" t="n">
-        <v>1288.378132818745</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O46" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U46" t="n">
-        <v>1937.514407000714</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="V46" t="n">
-        <v>1650.558898871144</v>
+        <v>1928.945530822402</v>
       </c>
       <c r="W46" t="n">
-        <v>1378.532494457436</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X46" t="n">
-        <v>1143.529071927299</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.1094012414073</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
   </sheetData>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.6222042310422724</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>2.907001885183224</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.923123287322518</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2.54878180977833</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.681898459715343</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.005106178460753341</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8853,16 +8853,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>177.1920849464598</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>175.7179764032062</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>156.7304232042869</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>274.1925087938259</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042866</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>118.2717723303424</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9798,19 +9798,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>240.3544725979806</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>93.97993254278316</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>177.1920849464598</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>167.4632046631937</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042868</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371569</v>
+        <v>6.52570510370299</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10512,16 +10512,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N37" t="n">
-        <v>175.7179764032071</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042868</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>458.1582657371569</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173448</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11223,19 +11223,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>141.4680432173448</v>
       </c>
       <c r="P43" t="n">
-        <v>81.48308576736599</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>263.8716243249368</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>394.4994971260158</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>282.8666935650426</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>397.5443511208167</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>400.9407135410828</v>
       </c>
     </row>
     <row r="9">
@@ -23114,10 +23114,10 @@
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194965</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>62.82088317610075</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T9" t="n">
-        <v>128.8768572327044</v>
+        <v>125.591226385672</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>194.2526896678938</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>150.0562124812485</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.2209214285714</v>
+        <v>121.9583725063111</v>
       </c>
     </row>
     <row r="10">
@@ -23193,13 +23193,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>160.668012373812</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>135.1979190266826</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>17.72522696250731</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -23247,7 +23247,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>222.2718208883059</v>
       </c>
     </row>
     <row r="11">
@@ -23260,13 +23260,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>33.50887553698584</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>78.02240241277603</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>220.8117227914212</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>95.88964603324658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.7178008506894</v>
       </c>
       <c r="E14" t="n">
-        <v>224.7201181121074</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23548,22 +23548,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>89.79110277694403</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>231.6232238184768</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>197.7505962861447</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>150.603354205218</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>82.91154299085191</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>169.1588901203621</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23983,7 +23983,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>256.2658684876185</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>55.78178879988923</v>
       </c>
     </row>
     <row r="21">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>85.88998780022017</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>69.52134278359696</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>45.62675964955963</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>177.1322645779589</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>119.9786344363084</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>61.03815536706756</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>133.4244407473308</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>199.7344774855799</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -24508,10 +24508,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>8.656881591941811</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>119.1276454350792</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>35.48425362450803</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24694,10 +24694,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>13.42442768340305</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>136.920008575967</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>99.00273129754093</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>245.891911301465</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -24976,16 +24976,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>146.5681114933478</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>156.0966473163361</v>
       </c>
       <c r="F34" t="n">
-        <v>107.1269275599053</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>411.125944432333</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>163.9720346374404</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>38.1382701058853</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811443</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>39.7219375973051</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>167.0609091620885</v>
       </c>
       <c r="F38" t="n">
-        <v>55.01629223713923</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,10 +25450,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>109.9025982497426</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>107.1269275599058</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>13.42442768340351</v>
+        <v>13.42442768340305</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>145.3425294405757</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>62.98443882875358</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.8581053589772</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>53.4861337707539</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>99.00273129754012</v>
       </c>
       <c r="X46" t="n">
-        <v>10.28444881508631</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2578.845170624973</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>412695.8868823332</v>
+        <v>412695.886882333</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>412695.8868823331</v>
+        <v>412695.8868823332</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>412695.8868823332</v>
+        <v>412695.8868823333</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>412695.8868823333</v>
+        <v>412695.8868823332</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>412695.8868823332</v>
+        <v>412695.8868823331</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>412695.8868823332</v>
+        <v>412695.8868823333</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>412695.8868823331</v>
+        <v>412695.8868823333</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>412695.8868823331</v>
+        <v>412695.8868823333</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>918.9194328187451</v>
       </c>
       <c r="E2" t="n">
         <v>149432.6927357765</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3293.504824504878</v>
       </c>
       <c r="E3" t="n">
-        <v>551135.2009906757</v>
+        <v>548022.1493403781</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>825.7217692837469</v>
       </c>
       <c r="M3" t="n">
-        <v>147050.7684025714</v>
+        <v>146237.7281609485</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>115.1010804579414</v>
       </c>
       <c r="E4" t="n">
+        <v>12054.84944074259</v>
+      </c>
+      <c r="F4" t="n">
         <v>12054.8494407426</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>12054.84944074259</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12054.8494407426</v>
       </c>
       <c r="H4" t="n">
         <v>12054.84944074259</v>
@@ -26444,22 +26444,22 @@
         <v>12054.8494407426</v>
       </c>
       <c r="K4" t="n">
+        <v>12054.8494407426</v>
+      </c>
+      <c r="L4" t="n">
         <v>12054.84944074259</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>12054.84944074259</v>
+      </c>
+      <c r="N4" t="n">
         <v>12054.8494407426</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12054.8494407426</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12054.84944074259</v>
       </c>
       <c r="O4" t="n">
         <v>12054.8494407426</v>
       </c>
       <c r="P4" t="n">
-        <v>12054.84944074259</v>
+        <v>12054.8494407426</v>
       </c>
     </row>
     <row r="5">
@@ -26475,19 +26475,19 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>33884.00183384596</v>
       </c>
       <c r="E5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
         <v>46051.08120963781</v>
@@ -26496,22 +26496,22 @@
         <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
+        <v>46051.08120963782</v>
+      </c>
+      <c r="L5" t="n">
         <v>46051.08120963781</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="N5" t="n">
         <v>46051.08120963782</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>46051.08120963782</v>
       </c>
-      <c r="N5" t="n">
-        <v>46051.08120963781</v>
-      </c>
-      <c r="O5" t="n">
-        <v>46051.08120963781</v>
-      </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-37709.22018764859</v>
       </c>
       <c r="E6" t="n">
-        <v>-459808.4389052797</v>
+        <v>-457249.267698204</v>
       </c>
       <c r="F6" t="n">
-        <v>91326.76208539608</v>
+        <v>90772.88164217412</v>
       </c>
       <c r="G6" t="n">
-        <v>91326.76208539604</v>
+        <v>90772.88164217412</v>
       </c>
       <c r="H6" t="n">
-        <v>91326.7620853961</v>
+        <v>90772.88164217414</v>
       </c>
       <c r="I6" t="n">
-        <v>91326.7620853961</v>
+        <v>90772.88164217414</v>
       </c>
       <c r="J6" t="n">
-        <v>91326.76208539601</v>
+        <v>90772.88164217408</v>
       </c>
       <c r="K6" t="n">
-        <v>91326.76208539604</v>
+        <v>90772.88164217409</v>
       </c>
       <c r="L6" t="n">
-        <v>91326.76208539607</v>
+        <v>89947.15987289035</v>
       </c>
       <c r="M6" t="n">
-        <v>-55724.0063171754</v>
+        <v>-55464.84651877432</v>
       </c>
       <c r="N6" t="n">
-        <v>91326.76208539604</v>
+        <v>90772.88164217412</v>
       </c>
       <c r="O6" t="n">
-        <v>91326.76208539604</v>
+        <v>90772.88164217412</v>
       </c>
       <c r="P6" t="n">
-        <v>91326.76208539607</v>
+        <v>90772.88164217415</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26795,19 +26795,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619341</v>
@@ -26816,22 +26816,22 @@
         <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="L4" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="N4" t="n">
         <v>590.0818943619342</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>590.0818943619342</v>
       </c>
-      <c r="N4" t="n">
-        <v>590.0818943619341</v>
-      </c>
-      <c r="O4" t="n">
-        <v>590.0818943619341</v>
-      </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>464.0395950944808</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>586.8193454396737</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3.262548922260163</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>586.8193454396737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>586.8193454396737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33025,7 +33025,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33733,10 +33733,10 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33970,7 +33970,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -34234,7 +34234,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.9083906948817442</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.6723126642497306</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.8193675710433224</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.7309862225975241</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.5577805856377203</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.7346729732425477</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.6785894010559677</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.407118461270537</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35415,10 +35415,10 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.076641276667</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35573,16 +35573,16 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>309.1157135712369</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>304.5047560030946</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -35652,7 +35652,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562349</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>281.8524450409514</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35883,16 +35883,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125707</v>
+        <v>159.2391669125713</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35904,7 +35904,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
         <v>117.855135640546</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>281.8524450409517</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>375.9794342258294</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36220,7 +36220,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002372</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>281.8524450409512</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>247.0585519302308</v>
       </c>
       <c r="O22" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36372,7 +36372,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184536</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36518,25 +36518,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>365.4764944346452</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247773</v>
+        <v>225.9035611675604</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954891</v>
       </c>
       <c r="O25" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36597,7 +36597,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
         <v>296.0766412766674</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M28" t="n">
-        <v>309.1157135712369</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O28" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>269.2501300951972</v>
       </c>
       <c r="Q28" t="n">
         <v>240.36368292423</v>
@@ -36849,7 +36849,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
         <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>281.8524450409514</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619341</v>
+        <v>138.4493337284802</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691673</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37168,10 +37168,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,19 +37229,19 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>281.8524450409517</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M34" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561041</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P34" t="n">
         <v>101.7869254320035</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37314,7 +37314,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37323,10 +37323,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
         <v>117.855135640546</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
-        <v>304.5047560030955</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>281.8524450409514</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M40" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561041</v>
+        <v>260.4234789221546</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37779,7 +37779,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -37788,7 +37788,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37876,13 +37876,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,19 +37943,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>260.4234789221546</v>
       </c>
       <c r="P43" t="n">
-        <v>183.2700111993695</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
         <v>240.36368292423</v>
@@ -38034,7 +38034,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>388.9936461616014</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
